--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value629.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value629.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.220442618261993</v>
+        <v>1.213243961334229</v>
       </c>
       <c r="B1">
-        <v>2.325695336121416</v>
+        <v>2.443443059921265</v>
       </c>
       <c r="C1">
-        <v>3.811949164518175</v>
+        <v>4.771324634552002</v>
       </c>
       <c r="D1">
-        <v>3.125030233311789</v>
+        <v>2.523614883422852</v>
       </c>
       <c r="E1">
-        <v>1.100411471539658</v>
+        <v>1.081949591636658</v>
       </c>
     </row>
   </sheetData>
